--- a/compared/compare_results_normalized_prob.xlsx
+++ b/compared/compare_results_normalized_prob.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -663,7 +663,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -711,7 +711,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -759,7 +759,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -831,7 +831,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -855,7 +855,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -951,7 +951,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1114,12 +1114,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TAATATTAAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1306,12 +1306,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>TAATATTAAT</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ATTAATTAAT</t>
+          <t>TAATTAATAT</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TAATTAATAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>ATTAATTAAT</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1450,12 +1450,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AATAATTAAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TATAATTAAT</t>
+          <t>TAATAATAAT</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TAATAATAAT</t>
+          <t>TATAATTAAT</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>AATAATTAAT</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1570,12 +1570,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TAATTATAAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1594,12 +1594,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>TAATTATAAT</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TAAAAAAAAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>TAAAAAAAAT</t>
         </is>
       </c>
       <c r="D52" t="n">
